--- a/SampleProject4/ExcelFiles/DemoLoginExcel.xlsx
+++ b/SampleProject4/ExcelFiles/DemoLoginExcel.xlsx
@@ -1,78 +1,47 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study Videos\SQA\Python\pythonSQAProject\SampleProject4\ExcelFiles\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A790A6BF-A40A-4F07-A161-91FA7E0F6969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="LoginTest" sheetId="1" r:id="rId1"/>
+    <sheet name="TestLogin" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="UserInfo" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RegisterTest" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>user_20240402222649@example.com</t>
-  </si>
-  <si>
-    <t>+zIuXe_&amp;1;sm</t>
-  </si>
-  <si>
-    <t>user_20240402223202@example.com</t>
-  </si>
-  <si>
-    <t>M*T__WJMR"ML</t>
-  </si>
-  <si>
-    <t>wokeb44453@irnini.com</t>
-  </si>
-  <si>
-    <t>r6r@635cLzGJae</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -80,27 +49,101 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -366,49 +409,234 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="34.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col width="34.5703125" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="14" bestFit="1" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>password</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>user_20240403001510@example.com</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>36XngJ@J)e:W</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>user_20240403001622@example.com</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>8"RRby=(awSp</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="10.5703125" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="10.140625" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="34.5703125" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="13.140625" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="14" bestFit="1" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>First Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Last Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Telephone</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Password</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Kaushik</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Debdas</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>user_20240403001510@example.com</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>+88008676787</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>36XngJ@J)e:W</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Kaushik</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Debdas</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>user_20240403001622@example.com</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>+88081052270</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>8"RRby=(awSp</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Evelyn</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Hall</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>user_20240403004832@example.com</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>+88068223962</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>#$X0?Xs*idvO</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>firstname</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>lastname</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Alam</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Musafir</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/SampleProject4/ExcelFiles/DemoLoginExcel.xlsx
+++ b/SampleProject4/ExcelFiles/DemoLoginExcel.xlsx
@@ -1,35 +1,132 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study Videos\SQA\Python\pythonSQAProject\SampleProject4\ExcelFiles\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7450B483-5738-4AB8-8AD6-D18374029AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="TestLogin" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="UserInfo" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RegisterTest" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="LoginTest" sheetId="1" r:id="rId1"/>
+    <sheet name="UserInfo" sheetId="2" r:id="rId2"/>
+    <sheet name="RegisterTest" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>user_20240403001510@example.com</t>
+  </si>
+  <si>
+    <t>36XngJ@J)e:W</t>
+  </si>
+  <si>
+    <t>user_20240403001622@example.com</t>
+  </si>
+  <si>
+    <t>8"RRby=(awSp</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Telephone</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Kaushik</t>
+  </si>
+  <si>
+    <t>Debdas</t>
+  </si>
+  <si>
+    <t>+88008676787</t>
+  </si>
+  <si>
+    <t>+88081052270</t>
+  </si>
+  <si>
+    <t>Evelyn</t>
+  </si>
+  <si>
+    <t>Hall</t>
+  </si>
+  <si>
+    <t>user_20240403004832@example.com</t>
+  </si>
+  <si>
+    <t>+88068223962</t>
+  </si>
+  <si>
+    <t>#$X0?Xs*idvO</t>
+  </si>
+  <si>
+    <t>Chase</t>
+  </si>
+  <si>
+    <t>Obrien</t>
+  </si>
+  <si>
+    <t>user_20240403120145@example.com</t>
+  </si>
+  <si>
+    <t>+88082425702</t>
+  </si>
+  <si>
+    <t>2oG\jA#KsPc*</t>
+  </si>
+  <si>
+    <t>firstname</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>Alam</t>
+  </si>
+  <si>
+    <t>Musafir</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -69,81 +166,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -409,57 +447,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="34.5703125" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="14" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col min="1" max="1" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>email</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>password</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>user_20240403001510@example.com</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>36XngJ@J)e:W</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>user_20240403001622@example.com</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>8"RRby=(awSp</t>
-        </is>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -468,132 +490,105 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E3"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="10.5703125" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="10.140625" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="34.5703125" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="13.140625" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="14" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>First Name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Last Name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Telephone</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Password</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Kaushik</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Debdas</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>user_20240403001510@example.com</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>+88008676787</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>36XngJ@J)e:W</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Kaushik</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Debdas</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>user_20240403001622@example.com</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>+88081052270</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>8"RRby=(awSp</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Evelyn</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Hall</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>user_20240403004832@example.com</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>+88068223962</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>#$X0?Xs*idvO</t>
-        </is>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -602,41 +597,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>firstname</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>lastname</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Alam</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Musafir</t>
-        </is>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/SampleProject4/ExcelFiles/DemoLoginExcel.xlsx
+++ b/SampleProject4/ExcelFiles/DemoLoginExcel.xlsx
@@ -1,132 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study Videos\SQA\Python\pythonSQAProject\SampleProject4\ExcelFiles\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7450B483-5738-4AB8-8AD6-D18374029AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="LoginTest" sheetId="1" r:id="rId1"/>
-    <sheet name="UserInfo" sheetId="2" r:id="rId2"/>
-    <sheet name="RegisterTest" sheetId="3" r:id="rId3"/>
+    <sheet name="LoginTest" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="UserInfo" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RegisterTest" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>user_20240403001510@example.com</t>
-  </si>
-  <si>
-    <t>36XngJ@J)e:W</t>
-  </si>
-  <si>
-    <t>user_20240403001622@example.com</t>
-  </si>
-  <si>
-    <t>8"RRby=(awSp</t>
-  </si>
-  <si>
-    <t>First Name</t>
-  </si>
-  <si>
-    <t>Last Name</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Telephone</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>Kaushik</t>
-  </si>
-  <si>
-    <t>Debdas</t>
-  </si>
-  <si>
-    <t>+88008676787</t>
-  </si>
-  <si>
-    <t>+88081052270</t>
-  </si>
-  <si>
-    <t>Evelyn</t>
-  </si>
-  <si>
-    <t>Hall</t>
-  </si>
-  <si>
-    <t>user_20240403004832@example.com</t>
-  </si>
-  <si>
-    <t>+88068223962</t>
-  </si>
-  <si>
-    <t>#$X0?Xs*idvO</t>
-  </si>
-  <si>
-    <t>Chase</t>
-  </si>
-  <si>
-    <t>Obrien</t>
-  </si>
-  <si>
-    <t>user_20240403120145@example.com</t>
-  </si>
-  <si>
-    <t>+88082425702</t>
-  </si>
-  <si>
-    <t>2oG\jA#KsPc*</t>
-  </si>
-  <si>
-    <t>firstname</t>
-  </si>
-  <si>
-    <t>lastname</t>
-  </si>
-  <si>
-    <t>Alam</t>
-  </si>
-  <si>
-    <t>Musafir</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -166,22 +69,81 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -447,41 +409,57 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="34.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col width="34.5703125" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="14" bestFit="1" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>password</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>user_20240403001510@example.com</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>36XngJ@J)e:W</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>user_20240403001622@example.com</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>8"RRby=(awSp</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -490,105 +468,186 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col width="10.5703125" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="10.140625" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="34.5703125" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="13.140625" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="14" bestFit="1" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" t="s">
-        <v>24</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>First Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Last Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Telephone</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Password</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Kaushik</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Debdas</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>user_20240403001510@example.com</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>+88008676787</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>36XngJ@J)e:W</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Kaushik</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Debdas</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>user_20240403001622@example.com</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>+88081052270</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>8"RRby=(awSp</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Evelyn</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Hall</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>user_20240403004832@example.com</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>+88068223962</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>#$X0?Xs*idvO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Chase</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Obrien</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>user_20240403120145@example.com</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>+88082425702</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2oG\jA#KsPc*</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Denise</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Mills</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>user_20240403233736@example.com</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>+88028334354</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>CGkr*^}X%"3:</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -597,29 +656,41 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" t="s">
-        <v>28</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>firstname</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>lastname</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Alam</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Musafir</t>
+        </is>
       </c>
     </row>
   </sheetData>
